--- a/TestFiles/Cupr/Convergence.xlsx
+++ b/TestFiles/Cupr/Convergence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danic\Documents\3 - STG-CRSNG_E2022\HydroElasticNastran\TestFiles\NACA0003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danic\Documents\3 - STG-CRSNG_E2022\flowaddeddamping\TestFiles\Cupr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86BDE6-4586-4C0F-AD91-1F87399D9DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5D278-EE3D-4801-BA31-BFC471CFA5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21540" windowHeight="11265" xr2:uid="{A5E3A5AF-F4A7-48E3-B1F3-90F36B10FD1B}"/>
+    <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E3A5AF-F4A7-48E3-B1F3-90F36B10FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>mesh_size</t>
   </si>
@@ -43,9 +43,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>nchord</t>
-  </si>
-  <si>
     <t>nspan</t>
   </si>
   <si>
@@ -67,53 +64,61 @@
     <t>Analyse modale acoustique découplée</t>
   </si>
   <si>
-    <t>On garde un nspan de 41 (pour la structure)</t>
-  </si>
-  <si>
     <t>Vérification avec l'analyse acoustique couplée</t>
   </si>
   <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>Analyse aéroélastique</t>
-  </si>
-  <si>
-    <t>max damping mode 1</t>
-  </si>
-  <si>
-    <t>damping error</t>
-  </si>
-  <si>
-    <t>Allure des graphs</t>
-  </si>
-  <si>
-    <t>On garde un mesh size de 6 (par safety)</t>
-  </si>
-  <si>
-    <t>On garde un nspan de 41</t>
-  </si>
-  <si>
-    <t>0.58% d'erreur: on est bon</t>
-  </si>
-  <si>
     <t>On garde un mesh size de 10</t>
   </si>
   <si>
-    <t>On garde un nchord=nspan de 16</t>
-  </si>
-  <si>
     <t>1.4% d'erreur: on est quand même pas pire bon</t>
+  </si>
+  <si>
+    <t>On garde 6</t>
+  </si>
+  <si>
+    <t>On garde un nspan de 31</t>
+  </si>
+  <si>
+    <t>0.88% d'erreur: on est bon</t>
+  </si>
+  <si>
+    <t>envelope_chord</t>
+  </si>
+  <si>
+    <t>On garde un nspan de  31 pour la structure</t>
+  </si>
+  <si>
+    <t>mesh_size_solid</t>
+  </si>
+  <si>
+    <t>mesh_size_fluid</t>
+  </si>
+  <si>
+    <t>nelm</t>
+  </si>
+  <si>
+    <t>nelm_solid</t>
+  </si>
+  <si>
+    <t>nelm_fluid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,14 +147,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B6E22F-3854-4E24-828D-13A7F622F7D6}">
-  <dimension ref="B1:F48"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +489,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -488,48 +497,48 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>51</v>
       </c>
       <c r="E3">
-        <v>430.39</v>
-      </c>
-      <c r="F3">
-        <f>(E3-E4)/E4*100</f>
-        <v>0.32167082352392612</v>
+        <v>429.34</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(E3-E4)/E4</f>
+        <v>1.7732978673759647E-3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="D4">
         <v>51</v>
       </c>
       <c r="E4">
-        <v>429.01</v>
+        <v>428.58</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -537,7 +546,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -545,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -559,14 +568,14 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>435.2</v>
-      </c>
-      <c r="E9">
-        <f>(D9-D10)/D10*100</f>
-        <v>1.145792177005138</v>
+        <v>431.86</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(D9-D10)/D10</f>
+        <v>7.3006320994565234E-3</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -574,38 +583,23 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>430.27</v>
-      </c>
-      <c r="E10">
-        <f>(D10-D11)/D11*100</f>
-        <v>0.53272272716651625</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>427.99</v>
-      </c>
-      <c r="E11" t="s">
+        <v>428.73</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -613,13 +607,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -627,38 +624,44 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>430.27</v>
+        <v>720</v>
       </c>
       <c r="E17">
-        <f>(D17-D18)/D18*100</f>
-        <v>0.58442621034668174</v>
+        <v>431.86</v>
+      </c>
+      <c r="F17" s="2">
+        <f>(E17-E18)/E18</f>
+        <v>8.8065593683572113E-3</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>427.77</v>
-      </c>
-      <c r="E18" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E18">
+        <v>428.09</v>
+      </c>
+      <c r="F18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -666,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -683,17 +686,17 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>619</v>
+        <v>1009</v>
       </c>
       <c r="D24">
         <v>51</v>
       </c>
       <c r="E24">
-        <v>3205.68</v>
-      </c>
-      <c r="F24">
-        <f>(E24-E25)/E25*100</f>
-        <v>0.56688239778391047</v>
+        <v>2594.91</v>
+      </c>
+      <c r="F24" s="2">
+        <f>(E24-E25)/E25</f>
+        <v>1.1561228264792723E-5</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -701,13 +704,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1421</v>
+        <v>2405</v>
       </c>
       <c r="D25">
         <v>51</v>
       </c>
       <c r="E25">
-        <v>3187.61</v>
+        <v>2594.88</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -715,7 +718,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -723,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -740,10 +743,10 @@
         <v>21</v>
       </c>
       <c r="D30">
-        <v>3205.68</v>
-      </c>
-      <c r="E30">
-        <f>(D30-D31)/D31*100</f>
+        <v>2594.91</v>
+      </c>
+      <c r="E30" s="2">
+        <f>(D30-D31)/D31</f>
         <v>0</v>
       </c>
     </row>
@@ -752,137 +755,112 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>3205.68</v>
+        <v>2594.91</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="D37" s="1">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>720</v>
+      </c>
+      <c r="G37" s="1">
+        <v>12315</v>
+      </c>
+      <c r="H37" s="1">
+        <v>190.82</v>
+      </c>
+      <c r="I37" s="2">
+        <f>(H37-H38)/H38</f>
+        <v>1.4330973187897333E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>61</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>5700</v>
+      </c>
+      <c r="G38">
+        <v>119910</v>
+      </c>
+      <c r="H38">
+        <v>188.124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>41</v>
-      </c>
-      <c r="D37">
-        <v>173.71</v>
-      </c>
-      <c r="E37">
-        <f>(D37-D38)/D38*100</f>
-        <v>1.3654665343992549</v>
-      </c>
-      <c r="F37">
-        <v>110.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>81</v>
-      </c>
-      <c r="D38">
-        <v>171.37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>0.34</v>
-      </c>
-      <c r="E44" t="e">
-        <f>(D44-D45)/D45*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
